--- a/10weekspregnant.xlsx
+++ b/10weekspregnant.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +481,3986 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Portland, Oregon</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>hubbin_out_with_kids</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Paul and Alec</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2730</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/hubbin_out_with_kids/</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2021-04-09</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Miami, Florida</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>lina_little_lina</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Little Lina</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/lina_little_lina/</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2021-04-08</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Edmond, Oklahoma</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>mikaylahudsonfit</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mikayla Hudson</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>1084</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mikaylahudsonfit/</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2021-04-08</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pompano Beach, Florida</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>boombangreveal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Gender Reveal Balls</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Warren@listdata.com</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>791</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/boombangreveal/</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>New London, Connecticut</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>paintercodesign</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CUSTOM HAND DRAWN GRAPHICS</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>175</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/paintercodesign/</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bend, Oregon</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>drmegancarmichael</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Bend Acupuncture</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>acu.w.megan@gmail.com</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>563</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/drmegancarmichael/</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Hanford, California</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>__christinavj</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Christina Villegas Jimenez</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>371</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/__christinavj/</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2021-04-05</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Murphy Creek</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>rasa.y0ga</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>🌸🧘🏻‍♀️Rasa Leung 🧘🏻‍♀️🌸</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>3085</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/rasa.y0ga/</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Nauticus</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>cailincrane</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Cailin Elizabeth Crane</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>587</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/cailincrane/</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2021-04-04</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Empire, Michigan</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>tylerlaurenchase</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Tyler Chase</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1271</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/tylerlaurenchase/</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2021-04-03</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Phoenix, Arizona</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>themelanieceleste</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Melanie Duran</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>melaniecelesteservices@gmail.com</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>680</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/themelanieceleste/</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2021-04-03</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Phoenix, Arizona</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>themelanieceleste</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Melanie Duran</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>melaniecelesteservices@gmail.com</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>680</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/themelanieceleste/</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2021-04-02</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Miami, Florida</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>mapisrules</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mariolga Pineda</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>mpinedach93@gmail.com</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>12273</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mapisrules/</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2021-04-02</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Meet the BABY</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>meetthebaby</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MeetTheBaby (813)249-2229</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>mtb.brandon@gmail.com</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>293</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/meetthebaby/</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2021-04-02</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Miramar, Florida</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>katerod__</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>katerodriguez0516@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1251</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/katerod__/</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2021-03-05</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Summerland Key, Florida</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>coolbluelin.z</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Lindsay 🤘🏼😍🤘🏼</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2911</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/coolbluelin.z/</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2021-01-15</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Palmdale, California</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>apomishpromise_ivf</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>𝓜𝓮𝓵𝓲𝓼𝓼𝓪 𝓟𝓸𝓶𝓲𝓼𝓱 IVF Journey</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>13302</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/apomishpromise_ivf/</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2021-04-01</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>New Whiteland, Indiana</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>sweetshelbyjean</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Shelby Richards</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>sweetshelbyjean@gmail.com</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>21309</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/sweetshelbyjean/</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2021-03-31</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>New City, New York</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>jomariecreativecircle</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Jomarie</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>jomariecreativecircle@gmail.com</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1492</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jomariecreativecircle/</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2021-03-31</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Nashville, Tennessee</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>stephanie.gradone</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Stephanie|Pre+Postnatal Coach</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>steph.gradone@gmail.com</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>943</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/stephanie.gradone/</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2021-03-30</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Peterson Wellness Center</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>xolaurenpace</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Lauren, MS | XO PARENTING</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>laurenfpace@gmail.com</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>12461</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/xolaurenpace/</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2021-03-30</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Madison, Wisconsin</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>theuncommonbrunette</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>M A G G I E  ✌️ NEW MOM + LIFE</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>theuncommonbrunette@gmail.com</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1574</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/theuncommonbrunette/</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2021-03-29</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Brooklyn, New York</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>bodyboostnyc</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>𝐁𝐎𝐃𝐘 𝐁𝐎𝐎𝐒𝐓 𝐌𝐚𝐭𝐞𝐫𝐧𝐢𝐭𝐲 𝐒𝐤𝐢𝐧𝐜𝐚𝐫𝐞</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>11380</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/bodyboostnyc/</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2021-03-29</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Thousand Oaks, California</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>carlyamber</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>💫𝙲𝚊𝚛𝚕𝚢 𝙰𝚖𝚋𝚎𝚛💫</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>carlyamberfitness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>10925</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/carlyamber/</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2021-03-28</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Facelook 4D Studios</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>facelook4dstudios</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Facelook 4D Studios</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>facelookstudios@gmail.com</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>727</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/facelook4dstudios/</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2021-03-28</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>The Fruitful Orchard &amp; Cider Mill</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>sarah.shooltz</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>𝑺𝒂𝒓𝒂𝒉 𝑺𝒉𝒐𝒐𝒍𝒕𝒛</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>coachsarahshooltz@gmail.com</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1212</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/sarah.shooltz/</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2021-03-28</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>B.E. Guess &amp; Son's Pecan Co.</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>asguess224</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Amanda Guess</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>amsmith0112@gmail.com</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>905</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/asguess224/</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2021-05-14</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Meet the BABY</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>meetthebaby</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>MeetTheBaby (813)249-2229</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>mtb.brandon@gmail.com</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>293</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/meetthebaby/</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2021-03-27</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Nibley, Utah</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>xolaurenpace</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Lauren, MS | XO PARENTING</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>laurenfpace@gmail.com</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>12461</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/xolaurenpace/</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2021-03-27</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Meet the Baby 3D / 4D Ultrasound</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>meetthebaby</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MeetTheBaby (813)249-2229</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>mtb.brandon@gmail.com</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>293</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/meetthebaby/</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2021-03-26</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Austin, Texas</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>jessadarling</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>512</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jessadarling/</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2021-03-26</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Cincinnati,Ohio</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>positivity.and.pushups</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>J E N N | Health Coach</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>positivity.and.pushups@gmail.com</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>283</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/positivity.and.pushups/</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2021-03-25</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Delray Beach, Florida</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>balancebymeg</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NUTRITION | MINDSET | FITNESS</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>balancebymeg@gmail.com</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2472</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/balancebymeg/</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2021-03-25</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>New Orleans, Louisiana</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>lulupaigewall</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Lauren Paige</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1188</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/lulupaigewall/</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2021-03-24</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Meet the BABY</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>meetthebaby</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MeetTheBaby (813)249-2229</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>mtb.brandon@gmail.com</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>293</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/meetthebaby/</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2021-03-24</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chicago, Illinois</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>pregnantandalmost40</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Katie Miller</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>41</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/pregnantandalmost40/</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2021-03-24</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Thousand Oaks, California</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>carlyamber</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>💫𝙲𝚊𝚛𝚕𝚢 𝙰𝚖𝚋𝚎𝚛💫</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>carlyamberfitness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>10925</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/carlyamber/</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2021-03-23</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mount Laurel, New Jersey</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>baby.knigh_soon</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Due March 24</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>61</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/baby.knigh_soon/</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2021-03-23</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Red Oak, Texas</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>jannette_leiva</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>JANNETTE | COACH + MENTOR</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>jannettemari@gmail.com</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>10177</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jannette_leiva/</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2021-03-23</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Lake Stevens, Washington</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>candidly_cassie</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Cassie English</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>1741</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/candidly_cassie/</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2021-03-23</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Pompano Beach, Florida</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>boombangreveal</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Gender Reveal Balls</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Warren@listdata.com</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>791</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/boombangreveal/</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2021-03-23</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Red Oak, Texas</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>jannette_leiva</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>JANNETTE | COACH + MENTOR</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>jannettemari@gmail.com</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>10177</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jannette_leiva/</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2021-03-22</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Los Angeles, California</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>preparented</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Shaina| Birth + Breastfeeding</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>preparented@gmail.com</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>905</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/preparented/</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2021-03-22</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Rochester, New York</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>baseballsandbabydolls</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Brianne | Lifestyle Blogger</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>briannelynk@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>14287</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/baseballsandbabydolls/</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2021-03-21</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Thousand Oaks, California</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>carlyamber</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>💫𝙲𝚊𝚛𝚕𝚢 𝙰𝚖𝚋𝚎𝚛💫</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>carlyamberfitness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>10924</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/carlyamber/</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2021-03-21</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Nobu Los Angeles</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>babygenderpros</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Baby Gender Pros</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>info@babygenderpros.com</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>4501</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/babygenderpros/</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2021-03-21</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Pompano Beach, Florida</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>boombangreveal</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Gender Reveal Balls</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Warren@listdata.com</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>791</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/boombangreveal/</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2021-03-21</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Charcoal Salon</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>venomfree_cupcakes</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>April Gonzalez</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>700</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/venomfree_cupcakes/</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2021-03-21</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Ventura, California</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>carlyamber</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>💫𝙲𝚊𝚛𝚕𝚢 𝙰𝚖𝚋𝚎𝚛💫</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>carlyamberfitness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>10924</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/carlyamber/</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2021-03-20</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Greenville, Michigan</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>babesandbudspodcast</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Babes➕Buds</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>5153</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/babesandbudspodcast/</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2021-03-19</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Las Vegas, Nevada</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ambererhard</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A M B E R•E R H A R D</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>ambererhard@gmail.com</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>4263</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/ambererhard/</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2021-03-19</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Meet the BABY</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>meetthebaby</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>MeetTheBaby (813)249-2229</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>mtb.brandon@gmail.com</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>293</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/meetthebaby/</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2021-03-18</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>San Diego, California</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>joanieblove</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Joanie (she/her)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>476</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/joanieblove/</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2021-03-18</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Redondo Beach, California</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>channonrose</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CHANNON ROSE</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>channonrose@me.com</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>216778</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/channonrose/</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2021-03-17</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Westlake Village, California</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>carlyamber</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>💫𝙲𝚊𝚛𝚕𝚢 𝙰𝚖𝚋𝚎𝚛💫</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>carlyamberfitness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>10924</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/carlyamber/</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2021-03-17</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Littleton, Colorado</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>anzhelika_lizcano</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>ANGELIKA KOTOVA</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>kotovangelika@gmail.com</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>4096</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/anzhelika_lizcano/</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2021-03-17</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>TNT Fitness LLC</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>tnt_angel</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Angel</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>angelpeck11@aol.com</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>1392</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/tnt_angel/</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2021-03-16</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Morgantown, West Virginia</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>abbyhos423</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Abby Hoskin</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>classyabbyskirts@gmail.com</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>234</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/abbyhos423/</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2021-03-16</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Lake Stevens, Washington</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>candidly_cassie</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Cassie English</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>1741</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/candidly_cassie/</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2021-03-16</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Honolulu, Hawaii</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>babehilber</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Babyhilber</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>4</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/babehilber/</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Oakland, California</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>memyselfmillie</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Me, Myself &amp; Millie</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>milliebrooks100@gmail.com</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>2661</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/memyselfmillie/</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Hialeah, Florida</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>babyworld3d4d</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Baby World &amp; Prenatal Sono</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>ultra4D3D@gmail.com</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>498</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/babyworld3d4d/</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Pompano Beach, Florida</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>boombangreveal</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Gender Reveal Balls</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Warren@listdata.com</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>791</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/boombangreveal/</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2021-03-14</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Oceanside, California</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>rhettscheurn</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Photographer | Videographer</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>rhettscheurn55@gmail.com</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>27951</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/rhettscheurn/</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2021-03-13</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Tumwater, Washington</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>jc_fitstagram</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Jaina</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>jaina.c.fitness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>469</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jc_fitstagram/</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2021-03-13</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Alameda, California</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>memyselfmillie</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Me, Myself &amp; Millie</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>milliebrooks100@gmail.com</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>2661</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/memyselfmillie/</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2021-03-12</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Berkeley, California</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>triciayen</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Tricia Yen</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>611</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/triciayen/</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2021-03-12</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Destrehan, Louisiana</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ashleybogac</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Sparkle And Sweat 🦄✨</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>6483</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/ashleybogac/</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2021-03-12</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Houston, Texas</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>mamimaddymargaritaa</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>30458</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mamimaddymargaritaa/</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2021-03-12</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Cincinnati,Ohio</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>dr_sedulously.fit</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>𝗗𝗿.𝗦𝗵𝗲𝗿𝗶𝗹𝗹𝗲 𝗦𝗮𝗻𝗱𝗲𝗿𝘀, 𝗣𝗵.𝗗.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>sedulously.fit@gmail.com</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>10542</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/dr_sedulously.fit/</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2021-03-12</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Thousand Oaks, California</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>carlyamber</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>💫𝙲𝚊𝚛𝚕𝚢 𝙰𝚖𝚋𝚎𝚛💫</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>carlyamberfitness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>10924</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/carlyamber/</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2021-03-11</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Pompano Beach, Florida</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>boombangreveal</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Gender Reveal Balls</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Warren@listdata.com</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>791</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/boombangreveal/</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2021-03-11</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Destrehan, Louisiana</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ashleybogac</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Sparkle And Sweat 🦄✨</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>6483</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/ashleybogac/</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2021-03-11</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Tumwater, Washington</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>jc_fitstagram</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Jaina</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>jaina.c.fitness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>469</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jc_fitstagram/</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2021-03-10</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Tampa, Florida</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>everydaywomenfitness</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>CYNDEL | SURDOVEL</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>cbslp@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>7173</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/everydaywomenfitness/</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2021-03-10</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Ventura Beach Califorina</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>carlyamber</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>💫𝙲𝚊𝚛𝚕𝚢 𝙰𝚖𝚋𝚎𝚛💫</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>carlyamberfitness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>10924</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/carlyamber/</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2021-03-09</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Burfoot Park</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>taylorpeckover</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Taylor Peckover</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>606</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/taylorpeckover/</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2021-03-08</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Michigan</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>patrice.ellen.zerafa</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Patrice Ellen Zerafa</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>1780</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/patrice.ellen.zerafa/</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2021-03-08</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Fishers, Indiana</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>toriheyman.fitlife</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>your weight loss inspo 🥳</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>toriheyman.fitlife@gmail.com</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>10444</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/toriheyman.fitlife/</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2021-03-08</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Tumwater, Washington</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>jc_fitstagram</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Jaina</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>jaina.c.fitness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>469</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jc_fitstagram/</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2021-03-07</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Charlotte, North Carolina</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>theonlyfrasian</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Emms</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>3396</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/theonlyfrasian/</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2021-03-06</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Shady Grove Fertility Center</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>everydaywomenfitness</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>CYNDEL | SURDOVEL</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>cbslp@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>7173</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/everydaywomenfitness/</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2021-03-06</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Four Seasons Hotel Westlake Village, California</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>carlyamber</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>💫𝙲𝚊𝚛𝚕𝚢 𝙰𝚖𝚋𝚎𝚛💫</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>carlyamberfitness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>10924</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/carlyamber/</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2021-03-05</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Westlake Village, California</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>carlyamber</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>💫𝙲𝚊𝚛𝚕𝚢 𝙰𝚖𝚋𝚎𝚛💫</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>carlyamberfitness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>10924</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/carlyamber/</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2021-03-04</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Meet the BABY</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>meetthebaby</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>MeetTheBaby (813)249-2229</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>mtb.brandon@gmail.com</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>293</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/meetthebaby/</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2021-03-04</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Downtown Disney District</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>disneyfamily714</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Disney Family 714</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>1568</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/disneyfamily714/</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2021-03-04</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Saint Petersburg, Florida</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>pregnancytreasures</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Pregnancy Treasures &amp; Boutique</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>desk@pregnancytreasures.com</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>2463</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/pregnancytreasures/</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2021-03-04</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Huguenot Park</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>babydemon247</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>liz👑</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>95</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/babydemon247/</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2021-03-03</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Georgia Prenatal</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>georgiaprenatal</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Georgia Prenatal</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>gaprenatal@gmail.com</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/georgiaprenatal/</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2021-03-03</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>BabyScene</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>babyscene1</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>baby scene</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>info@babyscene.com</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>578</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/babyscene1/</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2021-03-03</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Meet the BABY</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>meetthebaby</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>MeetTheBaby (813)249-2229</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>mtb.brandon@gmail.com</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>293</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/meetthebaby/</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2021-03-03</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Four Seasons Hotel Westlake Village, California</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>carlyamber</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>💫𝙲𝚊𝚛𝚕𝚢 𝙰𝚖𝚋𝚎𝚛💫</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>carlyamberfitness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>10924</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/carlyamber/</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2021-03-02</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Richmond, Kentucky</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>bump.to.babyboutique</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Bump-to-Baby Boutique</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>shopbumptobaby@gmail.com</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>170</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/bump.to.babyboutique/</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2021-02-28</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Los Peñasquitos Canyon Preserve</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>cherylrenea2289</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Cherylrenea2289</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>579</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/cherylrenea2289/</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2021-02-27</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Fort Worth, Texas</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>alyssamariahhurt</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>ALYSSA HURT</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>1054</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/alyssamariahhurt/</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2021-02-26</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>San Antonio, Texas</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>redlipstickmouse</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>6087</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/redlipstickmouse/</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2021-02-26</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Fort Worth, Texas</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>alyssamariahhurt</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ALYSSA HURT</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>1054</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/alyssamariahhurt/</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2021-02-25</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Merit Coffee</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>redlipstickmouse</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>6087</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/redlipstickmouse/</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2021-02-25</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Westlake Village, California</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>carlyamber</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>💫𝙲𝚊𝚛𝚕𝚢 𝙰𝚖𝚋𝚎𝚛💫</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>carlyamberfitness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>10924</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/carlyamber/</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2021-02-24</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Holden Heights, Florida</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>mind.fit.beauty</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Mom •Prego•Pcos •coach</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>lizchristine88@gmail.com</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>3507</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mind.fit.beauty/</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>2021-02-24</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Edgewater</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>doulahan</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Hannah Fath (She/Her)</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>doula.han.llc@gmail.com</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/doulahan/</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>2021-02-24</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/10weekspregnant.xlsx
+++ b/10weekspregnant.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,7 +577,6 @@
           <t>Mikayla Hudson</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
         <v>1084</v>
       </c>
@@ -653,7 +652,6 @@
           <t>CUSTOM HAND DRAWN GRAPHICS</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
         <v>175</v>
       </c>
@@ -1129,7 +1127,6 @@
           <t>𝓜𝓮𝓵𝓲𝓼𝓼𝓪 𝓟𝓸𝓶𝓲𝓼𝓱 IVF Journey</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
         <v>13302</v>
       </c>
@@ -1365,7 +1362,6 @@
           <t>𝐁𝐎𝐃𝐘 𝐁𝐎𝐎𝐒𝐓 𝐌𝐚𝐭𝐞𝐫𝐧𝐢𝐭𝐲 𝐒𝐤𝐢𝐧𝐜𝐚𝐫𝐞</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
         <v>11380</v>
       </c>
@@ -1676,7 +1672,6 @@
           <t>jessadarling</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -1877,7 +1872,6 @@
           <t>Katie Miller</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
         <v>41</v>
       </c>
@@ -2033,7 +2027,6 @@
           <t>Cassie English</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
         <v>1741</v>
       </c>
@@ -2549,7 +2542,6 @@
           <t>Joanie (she/her)</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
         <v>476</v>
       </c>
@@ -2785,7 +2777,6 @@
           <t>Cassie English</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
         <v>1741</v>
       </c>
@@ -3141,7 +3132,6 @@
           <t>Sparkle And Sweat 🦄✨</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
         <v>6483</v>
       </c>
@@ -3172,7 +3162,6 @@
           <t>mamimaddymargaritaa</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -3333,7 +3322,6 @@
           <t>Sparkle And Sweat 🦄✨</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
         <v>6483</v>
       </c>
@@ -3929,7 +3917,6 @@
           <t>liz👑</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
       <c r="E89" t="n">
         <v>95</v>
       </c>
@@ -4245,7 +4232,6 @@
           <t>Mouse</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
       <c r="E97" t="n">
         <v>6087</v>
       </c>
@@ -4321,7 +4307,6 @@
           <t>Mouse</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
       <c r="E99" t="n">
         <v>6087</v>
       </c>
@@ -4456,6 +4441,4082 @@
         </is>
       </c>
       <c r="H102" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Huntington Beach, California</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>shapebynat</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Natalie Eynon</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>natalie@shapebynat.com</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>37243</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/shapebynat/</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2021-02-23</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Carlsbad, California</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>fit_family_fire</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Jessica T</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>1765</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/fit_family_fire/</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>2021-02-23</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Mandalay Beach</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>britt_saulque</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Brittney Saulque</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>brittneysaulque@aol.com</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>13380</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/britt_saulque/</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Statesboro, Georgia</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>morgan_sparacio</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Morgan Sparacio</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>morgancoslowfitness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>12382</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/morgan_sparacio/</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Carlsbad, California</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>fit_family_fire</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Jessica T</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>1765</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/fit_family_fire/</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>2021-02-21</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Idaho Falls, Idaho</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>alysinreallife</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Alys (Alice)</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>886</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/alysinreallife/</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>2021-02-21</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Fort Foster Park</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>sweet.red.roses13</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Allie Sweet</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>409</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/sweet.red.roses13/</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>2021-02-21</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Pickerington, Ohio</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>theconfidentmamaco</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>The Confident Mama</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>TheConfidentMamaCo@gmail.com</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>332</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/theconfidentmamaco/</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>2021-02-18</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>McKinney, Texas</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>modernhomesteadmama</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Victoria🌻Modern Homestead Mama</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>victoria@mymomtasticlife.com</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>22572</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/modernhomesteadmama/</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>2021-02-17</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Camp Pendleton South</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>five_deep_breaths</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Striving Stoic</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>168</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/five_deep_breaths/</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>2021-02-16</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Boston, Massachusetts</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>kayla_mehr_</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Prenatal Postnatal Specialist</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>kaylamehr28@gmail.com</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>2228</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/kayla_mehr_/</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>2021-02-16</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>4D Imaging LLC</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>4d_imaging</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>4d Imaging LLC</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>info@w2yb.com</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>479</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/4d_imaging/</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>2021-02-15</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Beaverton, Michigan</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>katiemercerj</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Katie Mercer</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>katiemercer@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>820</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/katiemercerj/</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>2021-02-15</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Southaven, Mississippi</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>karli_cummings</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>K A R L I 🌟</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>10516</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/karli_cummings/</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>2021-02-15</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Reveal</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>reveal3d4dultrasound</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Reveal 3D/4D Ultrasound</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Info@revealaz.com</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>420</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/reveal3d4dultrasound/</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>2021-02-14</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Corpus Christi, Texas</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>krisgillentine</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Kristy Gillentine Callaway 😷</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>1350</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/krisgillentine/</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>2021-02-13</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Westlake Village, California</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>carlyamber</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>💫𝙲𝚊𝚛𝚕𝚢 𝙰𝚖𝚋𝚎𝚛💫</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>carlyamberfitness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>10924</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/carlyamber/</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>2021-02-12</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Los Angeles, California</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>thejacintofamily</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>The Jacinto Family Blog</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>381</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/thejacintofamily/</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>2021-02-12</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Hillsboro, Oregon</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>stephanie.lynn.carranza</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Stephanie Carranza</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>scarranz98@gmail.com</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>1326</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/stephanie.lynn.carranza/</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Gold Bar, Washington</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>jennydaisylove</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>L❣ve&amp;Light✷</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>5043</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jennydaisylove/</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>2021-02-09</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Queens, New York</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>mojoy9415</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>♥ MoJoy ♥</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>166</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mojoy9415/</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Westlake Village, California</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>carlyamber</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>💫𝙲𝚊𝚛𝚕𝚢 𝙰𝚖𝚋𝚎𝚛💫</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>carlyamberfitness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>10924</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/carlyamber/</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Lake Geneva, Wisconsin</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>ionelaherescu</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Ionela Herescu</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>260</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/ionelaherescu/</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Hillsboro, Oregon</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>stephanie.lynn.carranza</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Stephanie Carranza</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>scarranz98@gmail.com</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>1326</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/stephanie.lynn.carranza/</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>2021-02-06</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Las Vegas, Nevada</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>meg.gassler</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Megan Gassler 🤍✨🌵</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>vegasinspiredmind@outlook.com</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>1281</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/meg.gassler/</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>2021-02-05</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Collierville, Tennessee</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>alexcummins89</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Alex Cummins</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>848</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/alexcummins89/</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>2021-02-05</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Kalamazoo, Michigan</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>aiminghighermama</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>K A T R I N A  F R E E M A N</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>aiminghighermama@gmail.com</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>2919</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/aiminghighermama/</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>2021-02-05</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Evansville, Indiana</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>maryrutherford__</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Mary Rutherford</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>857</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/maryrutherford__/</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Wit My Baby Daddy</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>keeroyalty</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>•   Caramel Delight  🍯🥵 .</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>2426</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/keeroyalty/</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>2021-02-05</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Meridian, Idaho</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>kwatson_714</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Katie Watson</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>247</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/kwatson_714/</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>2021-02-04</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>San Diego, California</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>jazminnfuentes</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Jazmin Fuentes</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>jazminharo@outlook.com</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>3189</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jazminnfuentes/</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>2021-02-04</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Laguna Beach, California</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>travellersoul_world</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Traveller couples</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>95</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/travellersoul_world/</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>2021-02-04</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Nevada Fertility Center</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>mrs.katbb4me</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Kaitie</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>15244</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mrs.katbb4me/</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>2021-02-03</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Chicago, Illinois</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>ranch_stressing</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>KT Hawbaker</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>1629</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/ranch_stressing/</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>2021-02-03</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Plymouth, Massachusetts</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>je11_amacfit</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>April MacGilvray (Moore)</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Aprilmarie238@gmail.com</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>681</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/je11_amacfit/</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>2021-02-03</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Peekskill, New York</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>liaa.garciaa</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>C E L I A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>garciadcelia@gmail.com</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>1861</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/liaa.garciaa/</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>2021-02-03</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Rogers Park, Chicago</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ranch_stressing</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>KT Hawbaker</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>1629</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/ranch_stressing/</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>2021-02-03</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Northwest Oklahoma City, Oklahoma City, Oklahoma</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>_kelseypeacock_</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>K E L S E Y  P E A C O C K</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>kelspeacock@gmail.com</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>3551</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/_kelseypeacock_/</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>2021-02-03</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Alyeska Resort - Girdwood, Alaska</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>yogi_monii</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Monica Duff</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>mlduff@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>1606</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/yogi_monii/</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>2021-02-03</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Temecula, California</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>alexfaafetai</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Alex Faafetai🌻♋️</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>alexfaafetai@gmail.com</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>7398</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/alexfaafetai/</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>2021-02-03</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Palos Verdes Estates, California</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>genniiie</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Gennie</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>462</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/genniiie/</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>2021-02-02</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Las Vegas, Nevada</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>mrs.katbb4me</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Kaitie</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>15244</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mrs.katbb4me/</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>2021-02-02</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Pompano Beach, Florida</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>boombangreveal</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Gender Reveal Balls</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Warren@listdata.com</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>791</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/boombangreveal/</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>2021-02-02</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Corona, California</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>alexfaafetai</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Alex Faafetai🌻♋️</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>alexfaafetai@gmail.com</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>7398</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/alexfaafetai/</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>2021-02-01</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Acworth, Georgia</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>catherine.r.schulke</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Catherine Schulke</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>catherinehightower91@gmail.com</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>2484</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/catherine.r.schulke/</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>2021-02-01</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Pompano Beach, Florida</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>boombangreveal</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Gender Reveal Balls</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Warren@listdata.com</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>791</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/boombangreveal/</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>2021-02-01</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Riverside, California</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>alexfaafetai</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Alex Faafetai🌻♋️</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>alexfaafetai@gmail.com</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>7398</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/alexfaafetai/</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>2021-01-31</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Pompano Beach, Florida</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>boombangreveal</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Gender Reveal Balls</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Warren@listdata.com</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>791</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/boombangreveal/</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>2021-01-31</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Salt Lake City, Utah</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>marliespregnancy</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>My Pregnancy Journey</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>59</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/marliespregnancy/</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>2021-01-31</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Denver, Colorado</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>katebowensongs</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>kate bowen morse</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>1575</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/katebowensongs/</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>2021-01-31</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Pompano Beach, Florida</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>boombangreveal</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Gender Reveal Balls</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Warren@listdata.com</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>791</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/boombangreveal/</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>2021-01-30</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Rogers Park, Chicago</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>ranch_stressing</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>KT Hawbaker</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>1629</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/ranch_stressing/</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>2021-01-30</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Cincinnati,Ohio</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>dr_sedulously.fit</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>𝗗𝗿.𝗦𝗵𝗲𝗿𝗶𝗹𝗹𝗲 𝗦𝗮𝗻𝗱𝗲𝗿𝘀, 𝗣𝗵.𝗗.</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>sedulously.fit@gmail.com</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>10542</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/dr_sedulously.fit/</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Pompano Beach, Florida</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>boombangreveal</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Gender Reveal Balls</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Warren@listdata.com</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>791</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/boombangreveal/</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Loyola-Leone Beach</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>ranch_stressing</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>KT Hawbaker</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>1629</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/ranch_stressing/</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Loyola-Leone Beach</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ranch_stressing</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>KT Hawbaker</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>1629</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/ranch_stressing/</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Pompano Beach, Florida</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>boombangreveal</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Gender Reveal Balls</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Warren@listdata.com</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>791</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/boombangreveal/</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Thousand Oaks, California</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>carlyamber</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>💫𝙲𝚊𝚛𝚕𝚢 𝙰𝚖𝚋𝚎𝚛💫</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>carlyamberfitness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>10924</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/carlyamber/</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Medford, Oregon</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>graphicnature333</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>₲αββψ</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>329</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/graphicnature333/</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>2021-01-25</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Malibu, California</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>carlyamber</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>💫𝙲𝚊𝚛𝚕𝚢 𝙰𝚖𝚋𝚎𝚛💫</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>carlyamberfitness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>10924</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/carlyamber/</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>2021-01-25</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Pompano Beach, Florida</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>boombangreveal</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Gender Reveal Balls</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Warren@listdata.com</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>791</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/boombangreveal/</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Baker's Beach</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>healthymamasandbabies</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Healthymamas</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Amberloopearsonrebirth@gmail.com</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>1622</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/healthymamasandbabies/</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>2021-01-23</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Pembroke Pines, Florida</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>sindyarenas</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Sindy Arenas</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>contact@sindyarenas.com</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>57101</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/sindyarenas/</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>2021-01-22</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Thousand Oaks, California</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>carlyamber</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>💫𝙲𝚊𝚛𝚕𝚢 𝙰𝚖𝚋𝚎𝚛💫</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>carlyamberfitness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>10924</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/carlyamber/</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>2021-01-22</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Thousand Oaks, California</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>carlyamber</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>💫𝙲𝚊𝚛𝚕𝚢 𝙰𝚖𝚋𝚎𝚛💫</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>carlyamberfitness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>10924</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/carlyamber/</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>2021-01-20</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Miller Fitness - Skowhegan, Maine</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>morganstaples_</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>✖️Morgan Staples | Fit Mom✖️</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>morganbuker@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>2155</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/morganstaples_/</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>2021-01-20</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Pompano Beach, Florida</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>boombangreveal</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Gender Reveal Balls</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Warren@listdata.com</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>791</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/boombangreveal/</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>2021-01-20</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Lafayette, Indiana</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>adasgiftdoulaservices</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Nicole Ramsey</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>adasgiftdoulaservices@gmail.com</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>995</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/adasgiftdoulaservices/</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>2021-01-19</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Front Street Cafe Philadelphia</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>fitnessgoddesspa</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Nina</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>smcgloster@gmail.com</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>3836</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/fitnessgoddesspa/</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>2021-01-18</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Front Street Cafe Philadelphia</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>veganmuscle.fit</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Vegan Muscle</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>972</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/veganmuscle.fit/</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>2021-01-18</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Front Street Cafe Philadelphia</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>fitnessgoddesspa</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Nina</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>smcgloster@gmail.com</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>3836</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/fitnessgoddesspa/</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>2021-01-18</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Front Street Cafe Philadelphia</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>fitnessgoddesspa</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Nina</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>smcgloster@gmail.com</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>3836</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/fitnessgoddesspa/</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>2021-01-18</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Olathe, Kansas</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>thankyoujxy21</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Jayd'n Blacknoll</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>jaydnblacknoll21@gmail.com</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>631</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/thankyoujxy21/</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>2021-01-18</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Lafayette, Indiana</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>adasgiftdoulaservices</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Nicole Ramsey</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>adasgiftdoulaservices@gmail.com</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>995</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/adasgiftdoulaservices/</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>2021-01-18</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Westlake Village, California</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>carlyamber</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>💫𝙲𝚊𝚛𝚕𝚢 𝙰𝚖𝚋𝚎𝚛💫</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>carlyamberfitness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>10924</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/carlyamber/</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>2021-01-17</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Thousand Oaks, California</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>carlyamber</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>💫𝙲𝚊𝚛𝚕𝚢 𝙰𝚖𝚋𝚎𝚛💫</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>carlyamberfitness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>10924</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/carlyamber/</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>2021-01-16</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Whiting, Iowa</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>joannahobbs_</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>JoAnna Hobbs</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>hannerjoanna@gmail.com</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>3142</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/joannahobbs_/</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>2021-01-15</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Dr.Arjang Naim 'OB/GYN'</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>dr.arjangnaim</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Arjang Naim MD | OBGYN</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>support@drarjangnaim.com</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>2042</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/dr.arjangnaim/</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>2021-01-15</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Gold's Gym SoCal</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>vfitalicia</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Alicia Valenzuela</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>419</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/vfitalicia/</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>2021-01-15</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Plunge Beach Resort</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>rachelpaige1121</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Rachel Eisendrath</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>772</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/rachelpaige1121/</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>2021-01-15</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Saint Petersburg, Florida</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>pregnancytreasures</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Pregnancy Treasures &amp; Boutique</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>desk@pregnancytreasures.com</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>2463</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/pregnancytreasures/</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>2021-01-14</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Manatee, Florida</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>emilyahintze</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Mom Life, Fitness, Food</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>2099</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/emilyahintze/</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>2021-01-13</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Poquonock Bridge, Connecticut</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>tristaam</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Trista Maxson</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>386</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/tristaam/</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>2021-01-13</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Kansas City, Kansas</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>elysenull</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>elysenull</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>meetthenulls@gmail.com</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>11569</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/elysenull/</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>2021-01-13</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Delaware County, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>sghi_nola</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>COMEccME 👻</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>791</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/sghi_nola/</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>2021-01-13</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Delaware County, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>be_thee_wave</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Glowden✨GoAt 🌿🦄🌿</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>cecebarnes93@icloud.com</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>200</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/be_thee_wave/</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>2021-01-13</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Madison, Mississippi</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>hellofrankieday</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Frankie Day</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>hellofrankieday@gmail.com</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>14247</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/hellofrankieday/</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>2021-01-12</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Ferndale, Michigan</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>nichole_corbin</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Nichole.Corbin.fitness</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>927</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/nichole_corbin/</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>2021-01-12</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Ventura Beach Califorina</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>carlyamber</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>💫𝙲𝚊𝚛𝚕𝚢 𝙰𝚖𝚋𝚎𝚛💫</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>carlyamberfitness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>10924</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/carlyamber/</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>2021-01-11</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Stevens Point, Wisconsin</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>portagecountyprolife</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Pro Life Portage County</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>206</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/portagecountyprolife/</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>2021-01-09</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Duncan, South Carolina</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>sydney_garrison_</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Sydney Garrison</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>EssentiallySydney@gmail.com</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/sydney_garrison_/</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>2021-01-09</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Maple Grove, Minnesota</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>alvaradogina14</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Gina🔹Rubio🔹</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>297</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/alvaradogina14/</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>2021-01-08</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Guilderland, New York</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>tracey_zusman</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Tracey Zusman</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>congirl24@gmail.com</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>19165</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/tracey_zusman/</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>2021-01-07</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Yountville, California</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>carly.blessing</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Carly Blessing</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>604</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/carly.blessing/</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>2021-01-07</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Planet Fitness</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>sraerbaehcca.fit</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Sarah Rebecca</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>14</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/sraerbaehcca.fit/</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Melton Hill Park</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>mrsmeganhedley</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>🦖Megan Hedley🦕</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>hedleyfamilyblog@gmail.com</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>12346</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/mrsmeganhedley/</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>See My Baby Ultrasound</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>et.miz</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Eric &amp; Tracey</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>29</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/et.miz/</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Guilderland, New York</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>tracey_zusman</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Tracey Zusman</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>congirl24@gmail.com</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>19165</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/tracey_zusman/</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Lumberton, New Jersey</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>julwelde</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>J U L I E  W E L D E</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>10625</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/julwelde/</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>2021-01-04</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Thousand Oaks, California</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>carlyamber</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>💫𝙲𝚊𝚛𝚕𝚢 𝙰𝚖𝚋𝚎𝚛💫</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>carlyamberfitness@gmail.com</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>10924</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/carlyamber/</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>2021-01-04</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Pigeon Forge, Tennessee</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>fitness_schmidtness</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Kerri Steelman-Schmidt</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>KerriSteelmanSchmidt@SheFitFriend.com</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>10943</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/fitness_schmidtness/</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>2021-01-04</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Guilderland, New York</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>tracey_zusman</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Tracey Zusman</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>congirl24@gmail.com</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>19165</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/tracey_zusman/</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>2021-01-04</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Saratoga Lake - South Shore</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>tracey_zusman</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Tracey Zusman</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>congirl24@gmail.com</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>19165</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/tracey_zusman/</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>2021-01-03</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>10weekspregnant</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>South Dakota</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>sodoroshop</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Sodoro</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="n">
+        <v>312</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/sodoroshop/</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>2021-01-03</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
         <is>
           <t>10weekspregnant</t>
         </is>
